--- a/results/ML_results/1.xlsx
+++ b/results/ML_results/1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOVI\Desktop\git_code\src\ML\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOVI\Desktop\git_code\results\ML_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F952247-52B0-4898-8BFC-A04BB524D0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F209E5-77DE-4D51-9527-3E32B59F38C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="260">
   <si>
     <t>Seed</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>AUC</t>
-  </si>
-  <si>
-    <t>MCC</t>
   </si>
   <si>
     <t>Best_model</t>
@@ -864,18 +861,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -910,10 +901,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1218,148 +1209,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD75654B-D0BB-410A-9FB1-D63D42AF55B2}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" t="s">
         <v>234</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>235</v>
-      </c>
-      <c r="D2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" t="s">
         <v>237</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>238</v>
-      </c>
-      <c r="D3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" t="s">
         <v>240</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>241</v>
-      </c>
-      <c r="D4" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" t="s">
         <v>243</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>244</v>
-      </c>
-      <c r="D5" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" t="s">
         <v>246</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>247</v>
-      </c>
-      <c r="D6" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" t="s">
         <v>249</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>250</v>
-      </c>
-      <c r="D7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" t="s">
         <v>252</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>253</v>
-      </c>
-      <c r="D8" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" t="s">
         <v>255</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>256</v>
-      </c>
-      <c r="D9" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" t="s">
         <v>258</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>259</v>
-      </c>
-      <c r="D10" t="s">
-        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -1370,15 +1359,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1394,11 +1383,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -1411,14 +1397,11 @@
       <c r="D2">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E2">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -1431,14 +1414,11 @@
       <c r="D3">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E3">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -1451,14 +1431,11 @@
       <c r="D4">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E4">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -1471,14 +1448,11 @@
       <c r="D5">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E5">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -1491,14 +1465,11 @@
       <c r="D6">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E6">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -1511,14 +1482,11 @@
       <c r="D7">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E7">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -1531,14 +1499,11 @@
       <c r="D8">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E8">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -1551,14 +1516,11 @@
       <c r="D9">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E9">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -1571,14 +1533,11 @@
       <c r="D10">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E10">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -1591,14 +1550,11 @@
       <c r="D11">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E11">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -1611,14 +1567,11 @@
       <c r="D12">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E12">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -1631,14 +1584,11 @@
       <c r="D13">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E13">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -1651,14 +1601,11 @@
       <c r="D14">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E14">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -1671,14 +1618,11 @@
       <c r="D15">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E15">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -1691,14 +1635,11 @@
       <c r="D16">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E16">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -1711,14 +1652,11 @@
       <c r="D17">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E17">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -1731,14 +1669,11 @@
       <c r="D18">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E18">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -1751,14 +1686,11 @@
       <c r="D19">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E19">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -1771,14 +1703,11 @@
       <c r="D20">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E20">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -1791,14 +1720,11 @@
       <c r="D21">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E21">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -1811,14 +1737,11 @@
       <c r="D22">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E22">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F22" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -1831,14 +1754,11 @@
       <c r="D23">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E23">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -1851,14 +1771,11 @@
       <c r="D24">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E24">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -1871,14 +1788,11 @@
       <c r="D25">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E25">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -1891,14 +1805,11 @@
       <c r="D26">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E26">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -1911,14 +1822,11 @@
       <c r="D27">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E27">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -1931,14 +1839,11 @@
       <c r="D28">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E28">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -1951,14 +1856,11 @@
       <c r="D29">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E29">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -1971,14 +1873,11 @@
       <c r="D30">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E30">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -1991,32 +1890,25 @@
       <c r="D31">
         <v>0.4908926765852954</v>
       </c>
-      <c r="E31">
-        <v>-3.3084439540666637E-2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>43.5±0</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>12.79±0</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>49.09±0</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>-3.31±0</v>
       </c>
     </row>
   </sheetData>
@@ -2027,15 +1919,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2051,11 +1943,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -2068,14 +1957,11 @@
       <c r="D2">
         <v>0.56950021666907413</v>
       </c>
-      <c r="E2">
-        <v>0.2208100076733393</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -2088,14 +1974,11 @@
       <c r="D3">
         <v>0.63143146034955944</v>
       </c>
-      <c r="E3">
-        <v>0.28759734969475997</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -2108,14 +1991,11 @@
       <c r="D4">
         <v>0.57103856709518996</v>
       </c>
-      <c r="E4">
-        <v>0.23686556347865231</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -2128,14 +2008,11 @@
       <c r="D5">
         <v>0.57103856709518996</v>
       </c>
-      <c r="E5">
-        <v>0.23686556347865231</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -2148,14 +2025,11 @@
       <c r="D6">
         <v>0.57103856709518996</v>
       </c>
-      <c r="E6">
-        <v>0.23686556347865231</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -2168,14 +2042,11 @@
       <c r="D7">
         <v>0.57103856709518996</v>
       </c>
-      <c r="E7">
-        <v>0.23686556347865231</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -2188,14 +2059,11 @@
       <c r="D8">
         <v>0.63143146034955944</v>
       </c>
-      <c r="E8">
-        <v>0.28759734969475997</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -2208,14 +2076,11 @@
       <c r="D9">
         <v>0.57103856709518996</v>
       </c>
-      <c r="E9">
-        <v>0.23686556347865231</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -2228,14 +2093,11 @@
       <c r="D10">
         <v>0.57103856709518996</v>
       </c>
-      <c r="E10">
-        <v>0.23686556347865231</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -2248,14 +2110,11 @@
       <c r="D11">
         <v>0.57103856709518996</v>
       </c>
-      <c r="E11">
-        <v>0.23686556347865231</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -2268,14 +2127,11 @@
       <c r="D12">
         <v>0.63143146034955944</v>
       </c>
-      <c r="E12">
-        <v>0.28759734969475997</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -2288,14 +2144,11 @@
       <c r="D13">
         <v>0.57103856709518996</v>
       </c>
-      <c r="E13">
-        <v>0.23686556347865231</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -2308,14 +2161,11 @@
       <c r="D14">
         <v>0.57103856709518996</v>
       </c>
-      <c r="E14">
-        <v>0.23686556347865231</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -2328,14 +2178,11 @@
       <c r="D15">
         <v>0.57103856709518996</v>
       </c>
-      <c r="E15">
-        <v>0.23686556347865231</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -2348,14 +2195,11 @@
       <c r="D16">
         <v>0.57103856709518996</v>
       </c>
-      <c r="E16">
-        <v>0.23686556347865231</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -2368,14 +2212,11 @@
       <c r="D17">
         <v>0.57103856709518996</v>
       </c>
-      <c r="E17">
-        <v>0.23686556347865231</v>
-      </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -2388,14 +2229,11 @@
       <c r="D18">
         <v>0.57103856709518996</v>
       </c>
-      <c r="E18">
-        <v>0.23686556347865231</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -2408,14 +2246,11 @@
       <c r="D19">
         <v>0.57103856709518996</v>
       </c>
-      <c r="E19">
-        <v>0.23686556347865231</v>
-      </c>
-      <c r="F19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -2428,14 +2263,11 @@
       <c r="D20">
         <v>0.57103856709518996</v>
       </c>
-      <c r="E20">
-        <v>0.23686556347865231</v>
-      </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -2448,14 +2280,11 @@
       <c r="D21">
         <v>0.56950021666907413</v>
       </c>
-      <c r="E21">
-        <v>0.2208100076733393</v>
-      </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -2468,14 +2297,11 @@
       <c r="D22">
         <v>0.56950021666907413</v>
       </c>
-      <c r="E22">
-        <v>0.2208100076733393</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -2488,14 +2314,11 @@
       <c r="D23">
         <v>0.57103856709518996</v>
       </c>
-      <c r="E23">
-        <v>0.23686556347865231</v>
-      </c>
-      <c r="F23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -2508,14 +2331,11 @@
       <c r="D24">
         <v>0.56950021666907413</v>
       </c>
-      <c r="E24">
-        <v>0.2208100076733393</v>
-      </c>
-      <c r="F24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -2528,14 +2348,11 @@
       <c r="D25">
         <v>0.56950021666907413</v>
       </c>
-      <c r="E25">
-        <v>0.2208100076733393</v>
-      </c>
-      <c r="F25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -2548,14 +2365,11 @@
       <c r="D26">
         <v>0.57103856709518996</v>
       </c>
-      <c r="E26">
-        <v>0.23686556347865231</v>
-      </c>
-      <c r="F26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -2568,14 +2382,11 @@
       <c r="D27">
         <v>0.63143146034955944</v>
       </c>
-      <c r="E27">
-        <v>0.28759734969475997</v>
-      </c>
-      <c r="F27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -2588,14 +2399,11 @@
       <c r="D28">
         <v>0.57103856709518996</v>
       </c>
-      <c r="E28">
-        <v>0.23686556347865231</v>
-      </c>
-      <c r="F28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -2608,14 +2416,11 @@
       <c r="D29">
         <v>0.57103856709518996</v>
       </c>
-      <c r="E29">
-        <v>0.23686556347865231</v>
-      </c>
-      <c r="F29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -2628,14 +2433,11 @@
       <c r="D30">
         <v>0.57103856709518996</v>
       </c>
-      <c r="E30">
-        <v>0.23686556347865231</v>
-      </c>
-      <c r="F30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -2648,32 +2450,25 @@
       <c r="D31">
         <v>0.57103856709518996</v>
       </c>
-      <c r="E31">
-        <v>0.23686556347865231</v>
-      </c>
-      <c r="F31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>52.73±3</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>30.88±9</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>57.88±2</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>24.1±2</v>
       </c>
     </row>
   </sheetData>
@@ -2684,15 +2479,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2708,11 +2503,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -2725,14 +2517,11 @@
       <c r="D2">
         <v>0.57372526361404019</v>
       </c>
-      <c r="E2">
-        <v>0.25244800119594207</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -2745,14 +2534,11 @@
       <c r="D3">
         <v>0.65907843420482448</v>
       </c>
-      <c r="E3">
-        <v>0.39581205763263511</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -2765,14 +2551,11 @@
       <c r="D4">
         <v>0.59468438538205981</v>
       </c>
-      <c r="E4">
-        <v>0.30313000537690898</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -2785,14 +2568,11 @@
       <c r="D5">
         <v>0.66623573595262164</v>
       </c>
-      <c r="E5">
-        <v>0.41070192153030111</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -2805,14 +2585,11 @@
       <c r="D6">
         <v>0.6257330637007078</v>
       </c>
-      <c r="E6">
-        <v>0.35198994467240852</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -2825,14 +2602,11 @@
       <c r="D7">
         <v>0.60247724974721939</v>
       </c>
-      <c r="E7">
-        <v>0.31192931795839129</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -2845,14 +2619,11 @@
       <c r="D8">
         <v>0.63863209591217673</v>
       </c>
-      <c r="E8">
-        <v>0.35845604058123492</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -2865,14 +2636,11 @@
       <c r="D9">
         <v>0.66687129856998417</v>
       </c>
-      <c r="E9">
-        <v>0.40536176683602337</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -2885,14 +2653,11 @@
       <c r="D10">
         <v>0.61972410804564482</v>
       </c>
-      <c r="E10">
-        <v>0.3334079940625263</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -2905,14 +2670,11 @@
       <c r="D11">
         <v>0.59365881843131596</v>
       </c>
-      <c r="E11">
-        <v>0.29107974753013077</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -2925,14 +2687,11 @@
       <c r="D12">
         <v>0.66521016900187779</v>
       </c>
-      <c r="E12">
-        <v>0.40265009170491523</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -2945,14 +2704,11 @@
       <c r="D13">
         <v>0.68296981077567542</v>
       </c>
-      <c r="E13">
-        <v>0.42859643390270502</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -2965,14 +2721,11 @@
       <c r="D14">
         <v>0.70610284558717318</v>
       </c>
-      <c r="E14">
-        <v>0.47380049045216921</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -2985,14 +2738,11 @@
       <c r="D15">
         <v>0.69127545861620676</v>
       </c>
-      <c r="E15">
-        <v>0.4420063735192265</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -3005,14 +2755,11 @@
       <c r="D16">
         <v>0.6385093167701863</v>
       </c>
-      <c r="E16">
-        <v>0.36915856515195189</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -3025,14 +2772,11 @@
       <c r="D17">
         <v>0.60477394193268819</v>
       </c>
-      <c r="E17">
-        <v>0.30692407986941672</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -3045,14 +2789,11 @@
       <c r="D18">
         <v>0.65690452116134623</v>
       </c>
-      <c r="E18">
-        <v>0.3890139914702444</v>
-      </c>
-      <c r="F18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -3065,14 +2806,11 @@
       <c r="D19">
         <v>0.6574173046367181</v>
       </c>
-      <c r="E19">
-        <v>0.3930963635416006</v>
-      </c>
-      <c r="F19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -3085,14 +2823,11 @@
       <c r="D20">
         <v>0.71172179690885451</v>
       </c>
-      <c r="E20">
-        <v>0.4773009503396064</v>
-      </c>
-      <c r="F20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -3105,14 +2840,11 @@
       <c r="D21">
         <v>0.5853531705907844</v>
       </c>
-      <c r="E21">
-        <v>0.27539496859048468</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -3125,14 +2857,11 @@
       <c r="D22">
         <v>0.60528672540806006</v>
       </c>
-      <c r="E22">
-        <v>0.31225243101666372</v>
-      </c>
-      <c r="F22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -3145,14 +2874,11 @@
       <c r="D23">
         <v>0.62419471327459186</v>
       </c>
-      <c r="E23">
-        <v>0.33727710855172771</v>
-      </c>
-      <c r="F23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -3165,14 +2891,11 @@
       <c r="D24">
         <v>0.63467427415860167</v>
       </c>
-      <c r="E24">
-        <v>0.35893731173159071</v>
-      </c>
-      <c r="F24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -3185,14 +2908,11 @@
       <c r="D25">
         <v>0.64693774375270841</v>
       </c>
-      <c r="E25">
-        <v>0.37245335724728362</v>
-      </c>
-      <c r="F25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -3205,14 +2925,11 @@
       <c r="D26">
         <v>0.62739419326881418</v>
       </c>
-      <c r="E26">
-        <v>0.35476766648180619</v>
-      </c>
-      <c r="F26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -3225,14 +2942,11 @@
       <c r="D27">
         <v>0.62917810197891078</v>
       </c>
-      <c r="E27">
-        <v>0.34587163686680061</v>
-      </c>
-      <c r="F27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -3245,14 +2959,11 @@
       <c r="D28">
         <v>0.66010400115556844</v>
       </c>
-      <c r="E28">
-        <v>0.40428202492959242</v>
-      </c>
-      <c r="F28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -3265,14 +2976,11 @@
       <c r="D29">
         <v>0.64080600895565498</v>
       </c>
-      <c r="E29">
-        <v>0.36558949251025902</v>
-      </c>
-      <c r="F29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -3285,14 +2993,11 @@
       <c r="D30">
         <v>0.64847609417882424</v>
       </c>
-      <c r="E30">
-        <v>0.38550414377441028</v>
-      </c>
-      <c r="F30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -3305,32 +3010,25 @@
       <c r="D31">
         <v>0.68399537772641916</v>
       </c>
-      <c r="E31">
-        <v>0.43598599662392779</v>
-      </c>
-      <c r="F31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>59.54±4</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>44.91±9</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>64.14±4</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>36.82±6</v>
       </c>
     </row>
   </sheetData>
@@ -3341,15 +3039,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3365,11 +3063,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -3382,14 +3077,11 @@
       <c r="D2">
         <v>0.63396648851653914</v>
       </c>
-      <c r="E2">
-        <v>0.28413453943643752</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -3402,14 +3094,11 @@
       <c r="D3">
         <v>0.59815831287014309</v>
       </c>
-      <c r="E3">
-        <v>0.21563734435590781</v>
-      </c>
-      <c r="F3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -3422,14 +3111,11 @@
       <c r="D4">
         <v>0.59815831287014309</v>
       </c>
-      <c r="E4">
-        <v>0.21563734435590781</v>
-      </c>
-      <c r="F4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -3442,14 +3128,11 @@
       <c r="D5">
         <v>0.59815831287014309</v>
       </c>
-      <c r="E5">
-        <v>0.21563734435590781</v>
-      </c>
-      <c r="F5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -3462,14 +3145,11 @@
       <c r="D6">
         <v>0.61811353459482887</v>
       </c>
-      <c r="E6">
-        <v>0.2512923050464555</v>
-      </c>
-      <c r="F6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -3482,14 +3162,11 @@
       <c r="D7">
         <v>0.59815831287014309</v>
       </c>
-      <c r="E7">
-        <v>0.21563734435590781</v>
-      </c>
-      <c r="F7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -3502,14 +3179,11 @@
       <c r="D8">
         <v>0.59815831287014309</v>
       </c>
-      <c r="E8">
-        <v>0.21563734435590781</v>
-      </c>
-      <c r="F8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -3522,14 +3196,11 @@
       <c r="D9">
         <v>0.63396648851653914</v>
       </c>
-      <c r="E9">
-        <v>0.28413453943643752</v>
-      </c>
-      <c r="F9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -3542,14 +3213,11 @@
       <c r="D10">
         <v>0.61811353459482887</v>
       </c>
-      <c r="E10">
-        <v>0.2512923050464555</v>
-      </c>
-      <c r="F10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -3562,14 +3230,11 @@
       <c r="D11">
         <v>0.59815831287014309</v>
       </c>
-      <c r="E11">
-        <v>0.21563734435590781</v>
-      </c>
-      <c r="F11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -3582,14 +3247,11 @@
       <c r="D12">
         <v>0.59815831287014309</v>
       </c>
-      <c r="E12">
-        <v>0.21563734435590781</v>
-      </c>
-      <c r="F12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -3602,14 +3264,11 @@
       <c r="D13">
         <v>0.63396648851653914</v>
       </c>
-      <c r="E13">
-        <v>0.28413453943643752</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -3622,14 +3281,11 @@
       <c r="D14">
         <v>0.63396648851653914</v>
       </c>
-      <c r="E14">
-        <v>0.28413453943643752</v>
-      </c>
-      <c r="F14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -3642,14 +3298,11 @@
       <c r="D15">
         <v>0.59815831287014309</v>
       </c>
-      <c r="E15">
-        <v>0.21563734435590781</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -3662,14 +3315,11 @@
       <c r="D16">
         <v>0.59815831287014309</v>
       </c>
-      <c r="E16">
-        <v>0.21563734435590781</v>
-      </c>
-      <c r="F16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -3682,14 +3332,11 @@
       <c r="D17">
         <v>0.63396648851653914</v>
       </c>
-      <c r="E17">
-        <v>0.28413453943643752</v>
-      </c>
-      <c r="F17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -3702,14 +3349,11 @@
       <c r="D18">
         <v>0.63396648851653914</v>
       </c>
-      <c r="E18">
-        <v>0.28413453943643752</v>
-      </c>
-      <c r="F18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -3722,14 +3366,11 @@
       <c r="D19">
         <v>0.59815831287014309</v>
       </c>
-      <c r="E19">
-        <v>0.21563734435590781</v>
-      </c>
-      <c r="F19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -3742,14 +3383,11 @@
       <c r="D20">
         <v>0.59815831287014309</v>
       </c>
-      <c r="E20">
-        <v>0.21563734435590781</v>
-      </c>
-      <c r="F20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -3762,14 +3400,11 @@
       <c r="D21">
         <v>0.59815831287014309</v>
       </c>
-      <c r="E21">
-        <v>0.21563734435590781</v>
-      </c>
-      <c r="F21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -3782,14 +3417,11 @@
       <c r="D22">
         <v>0.59815831287014309</v>
       </c>
-      <c r="E22">
-        <v>0.21563734435590781</v>
-      </c>
-      <c r="F22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -3802,14 +3434,11 @@
       <c r="D23">
         <v>0.61811353459482887</v>
       </c>
-      <c r="E23">
-        <v>0.2512923050464555</v>
-      </c>
-      <c r="F23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -3822,14 +3451,11 @@
       <c r="D24">
         <v>0.59815831287014309</v>
       </c>
-      <c r="E24">
-        <v>0.21563734435590781</v>
-      </c>
-      <c r="F24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -3842,14 +3468,11 @@
       <c r="D25">
         <v>0.59815831287014309</v>
       </c>
-      <c r="E25">
-        <v>0.21563734435590781</v>
-      </c>
-      <c r="F25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -3862,14 +3485,11 @@
       <c r="D26">
         <v>0.63396648851653914</v>
       </c>
-      <c r="E26">
-        <v>0.28413453943643752</v>
-      </c>
-      <c r="F26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -3882,14 +3502,11 @@
       <c r="D27">
         <v>0.59815831287014309</v>
       </c>
-      <c r="E27">
-        <v>0.21563734435590781</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -3902,14 +3519,11 @@
       <c r="D28">
         <v>0.63396648851653914</v>
       </c>
-      <c r="E28">
-        <v>0.28413453943643752</v>
-      </c>
-      <c r="F28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -3922,14 +3536,11 @@
       <c r="D29">
         <v>0.59815831287014309</v>
       </c>
-      <c r="E29">
-        <v>0.21563734435590781</v>
-      </c>
-      <c r="F29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -3942,14 +3553,11 @@
       <c r="D30">
         <v>0.61811353459482887</v>
       </c>
-      <c r="E30">
-        <v>0.2512923050464555</v>
-      </c>
-      <c r="F30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -3962,32 +3570,25 @@
       <c r="D31">
         <v>0.59432327025855836</v>
       </c>
-      <c r="E31">
-        <v>0.20721239918241161</v>
-      </c>
-      <c r="F31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>63.52±1</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>71.23±1</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>61.02±2</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>23.84±3</v>
       </c>
     </row>
   </sheetData>
@@ -3998,15 +3599,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4022,11 +3623,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -4039,14 +3637,11 @@
       <c r="D2">
         <v>0.68432038133757045</v>
       </c>
-      <c r="E2">
-        <v>0.37661318737219268</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -4059,14 +3654,11 @@
       <c r="D3">
         <v>0.71243680485338734</v>
       </c>
-      <c r="E3">
-        <v>0.43022010850743009</v>
-      </c>
-      <c r="F3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -4079,14 +3671,11 @@
       <c r="D4">
         <v>0.66436515961288456</v>
       </c>
-      <c r="E4">
-        <v>0.33089299469696809</v>
-      </c>
-      <c r="F4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -4099,14 +3688,11 @@
       <c r="D5">
         <v>0.67562472916365734</v>
       </c>
-      <c r="E5">
-        <v>0.3575008662119451</v>
-      </c>
-      <c r="F5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -4119,14 +3705,11 @@
       <c r="D6">
         <v>0.71520294669940776</v>
       </c>
-      <c r="E6">
-        <v>0.42681438251898679</v>
-      </c>
-      <c r="F6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -4139,14 +3722,11 @@
       <c r="D7">
         <v>0.68212480138668208</v>
       </c>
-      <c r="E7">
-        <v>0.36388710515219302</v>
-      </c>
-      <c r="F7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -4159,14 +3739,11 @@
       <c r="D8">
         <v>0.61900187779864213</v>
       </c>
-      <c r="E8">
-        <v>0.24491487360519379</v>
-      </c>
-      <c r="F8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -4179,14 +3756,11 @@
       <c r="D9">
         <v>0.68837931532572594</v>
       </c>
-      <c r="E9">
-        <v>0.37449352817403769</v>
-      </c>
-      <c r="F9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -4199,14 +3773,11 @@
       <c r="D10">
         <v>0.69233713707930078</v>
       </c>
-      <c r="E10">
-        <v>0.38171386644523703</v>
-      </c>
-      <c r="F10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -4219,14 +3790,11 @@
       <c r="D11">
         <v>0.69514661274014156</v>
       </c>
-      <c r="E11">
-        <v>0.38703643372363072</v>
-      </c>
-      <c r="F11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -4239,14 +3807,11 @@
       <c r="D12">
         <v>0.68837931532572594</v>
       </c>
-      <c r="E12">
-        <v>0.37449352817403769</v>
-      </c>
-      <c r="F12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -4259,14 +3824,11 @@
       <c r="D13">
         <v>0.67332803697818877</v>
       </c>
-      <c r="E13">
-        <v>0.35485456771180968</v>
-      </c>
-      <c r="F13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -4279,14 +3841,11 @@
       <c r="D14">
         <v>0.68930377004188947</v>
       </c>
-      <c r="E14">
-        <v>0.38569806900834758</v>
-      </c>
-      <c r="F14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -4299,14 +3858,11 @@
       <c r="D15">
         <v>0.69795608840098222</v>
       </c>
-      <c r="E15">
-        <v>0.39244129995934618</v>
-      </c>
-      <c r="F15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -4319,14 +3875,11 @@
       <c r="D16">
         <v>0.65247002744474925</v>
       </c>
-      <c r="E16">
-        <v>0.30526211028856348</v>
-      </c>
-      <c r="F16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -4339,14 +3892,11 @@
       <c r="D17">
         <v>0.72939477105301165</v>
       </c>
-      <c r="E17">
-        <v>0.45480616346523278</v>
-      </c>
-      <c r="F17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -4359,14 +3909,11 @@
       <c r="D18">
         <v>0.64328325870287439</v>
       </c>
-      <c r="E18">
-        <v>0.29193331010097318</v>
-      </c>
-      <c r="F18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -4379,14 +3926,11 @@
       <c r="D19">
         <v>0.68918099089989893</v>
       </c>
-      <c r="E19">
-        <v>0.38810417163295929</v>
-      </c>
-      <c r="F19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -4399,14 +3943,11 @@
       <c r="D20">
         <v>0.69186768741874904</v>
       </c>
-      <c r="E20">
-        <v>0.39487822614526791</v>
-      </c>
-      <c r="F20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -4419,14 +3960,11 @@
       <c r="D21">
         <v>0.69863498483316488</v>
       </c>
-      <c r="E21">
-        <v>0.40434043358256061</v>
-      </c>
-      <c r="F21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -4439,14 +3977,11 @@
       <c r="D22">
         <v>0.64672829698107759</v>
       </c>
-      <c r="E22">
-        <v>0.29667959442509328</v>
-      </c>
-      <c r="F22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -4459,14 +3994,11 @@
       <c r="D23">
         <v>0.61504405604506718</v>
       </c>
-      <c r="E23">
-        <v>0.23869390081121819</v>
-      </c>
-      <c r="F23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -4479,14 +4011,11 @@
       <c r="D24">
         <v>0.69617217969088552</v>
       </c>
-      <c r="E24">
-        <v>0.389324923599772</v>
-      </c>
-      <c r="F24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -4499,14 +4028,11 @@
       <c r="D25">
         <v>0.60468727430304781</v>
       </c>
-      <c r="E25">
-        <v>0.21642980288720701</v>
-      </c>
-      <c r="F25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -4519,14 +4045,11 @@
       <c r="D26">
         <v>0.7112451249458327</v>
       </c>
-      <c r="E26">
-        <v>0.41871506376470308</v>
-      </c>
-      <c r="F26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -4539,14 +4062,11 @@
       <c r="D27">
         <v>0.67636140401560019</v>
       </c>
-      <c r="E27">
-        <v>0.35040723319773531</v>
-      </c>
-      <c r="F27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -4559,14 +4079,11 @@
       <c r="D28">
         <v>0.70792286580962016</v>
       </c>
-      <c r="E28">
-        <v>0.41211237766608833</v>
-      </c>
-      <c r="F28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -4579,14 +4096,11 @@
       <c r="D29">
         <v>0.61631518127979201</v>
       </c>
-      <c r="E29">
-        <v>0.23862020631246891</v>
-      </c>
-      <c r="F29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -4599,14 +4113,11 @@
       <c r="D30">
         <v>0.69978333092589917</v>
       </c>
-      <c r="E30">
-        <v>0.40560517045618699</v>
-      </c>
-      <c r="F30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -4619,32 +4130,25 @@
       <c r="D31">
         <v>0.69834609273436365</v>
       </c>
-      <c r="E31">
-        <v>0.39371769572387683</v>
-      </c>
-      <c r="F31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>66.53±4</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>66.03±5</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>67.85±3</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>35.94±6</v>
       </c>
     </row>
   </sheetData>
@@ -4655,15 +4159,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4679,11 +4183,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -4696,14 +4197,11 @@
       <c r="D2">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E2">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -4716,14 +4214,11 @@
       <c r="D3">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E3">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -4736,14 +4231,11 @@
       <c r="D4">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E4">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -4756,14 +4248,11 @@
       <c r="D5">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E5">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -4776,14 +4265,11 @@
       <c r="D6">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E6">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -4796,14 +4282,11 @@
       <c r="D7">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E7">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -4816,14 +4299,11 @@
       <c r="D8">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E8">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -4836,14 +4316,11 @@
       <c r="D9">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E9">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -4856,14 +4333,11 @@
       <c r="D10">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E10">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -4876,14 +4350,11 @@
       <c r="D11">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E11">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -4896,14 +4367,11 @@
       <c r="D12">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E12">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -4916,14 +4384,11 @@
       <c r="D13">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E13">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -4936,14 +4401,11 @@
       <c r="D14">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E14">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -4956,14 +4418,11 @@
       <c r="D15">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E15">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -4976,14 +4435,11 @@
       <c r="D16">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E16">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -4996,14 +4452,11 @@
       <c r="D17">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E17">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -5016,14 +4469,11 @@
       <c r="D18">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E18">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -5036,14 +4486,11 @@
       <c r="D19">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E19">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -5056,14 +4503,11 @@
       <c r="D20">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E20">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -5076,14 +4520,11 @@
       <c r="D21">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E21">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -5096,14 +4537,11 @@
       <c r="D22">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E22">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -5116,14 +4554,11 @@
       <c r="D23">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E23">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -5136,14 +4571,11 @@
       <c r="D24">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E24">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -5156,14 +4588,11 @@
       <c r="D25">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E25">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -5176,14 +4605,11 @@
       <c r="D26">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E26">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -5196,14 +4622,11 @@
       <c r="D27">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E27">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -5216,14 +4639,11 @@
       <c r="D28">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E28">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -5236,14 +4656,11 @@
       <c r="D29">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E29">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -5256,14 +4673,11 @@
       <c r="D30">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E30">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -5276,32 +4690,25 @@
       <c r="D31">
         <v>0.78159035100390006</v>
       </c>
-      <c r="E31">
-        <v>0.56727613713787706</v>
-      </c>
-      <c r="F31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>76.46±0</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>75.92±0</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>78.16±0</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>56.73±0</v>
       </c>
     </row>
   </sheetData>
@@ -5312,15 +4719,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5336,11 +4743,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -5353,14 +4757,11 @@
       <c r="D2">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E2">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -5373,14 +4774,11 @@
       <c r="D3">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E3">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -5393,14 +4791,11 @@
       <c r="D4">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E4">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -5413,14 +4808,11 @@
       <c r="D5">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E5">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -5433,14 +4825,11 @@
       <c r="D6">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E6">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -5453,14 +4842,11 @@
       <c r="D7">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E7">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -5473,14 +4859,11 @@
       <c r="D8">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E8">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -5493,14 +4876,11 @@
       <c r="D9">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E9">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -5513,14 +4893,11 @@
       <c r="D10">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E10">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -5533,14 +4910,11 @@
       <c r="D11">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E11">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -5553,14 +4927,11 @@
       <c r="D12">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E12">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -5573,14 +4944,11 @@
       <c r="D13">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E13">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -5593,14 +4961,11 @@
       <c r="D14">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E14">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -5613,14 +4978,11 @@
       <c r="D15">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E15">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -5633,14 +4995,11 @@
       <c r="D16">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E16">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -5653,14 +5012,11 @@
       <c r="D17">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E17">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -5673,14 +5029,11 @@
       <c r="D18">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E18">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -5693,14 +5046,11 @@
       <c r="D19">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E19">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -5713,14 +5063,11 @@
       <c r="D20">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E20">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -5733,14 +5080,11 @@
       <c r="D21">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E21">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -5753,14 +5097,11 @@
       <c r="D22">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E22">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -5773,14 +5114,11 @@
       <c r="D23">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E23">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -5793,14 +5131,11 @@
       <c r="D24">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E24">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -5813,14 +5148,11 @@
       <c r="D25">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E25">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -5833,14 +5165,11 @@
       <c r="D26">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E26">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -5853,14 +5182,11 @@
       <c r="D27">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E27">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -5873,14 +5199,11 @@
       <c r="D28">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E28">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -5893,14 +5216,11 @@
       <c r="D29">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E29">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F29" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -5913,14 +5233,11 @@
       <c r="D30">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E30">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F30" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -5933,32 +5250,25 @@
       <c r="D31">
         <v>0.69459771775241952</v>
       </c>
-      <c r="E31">
-        <v>0.44735187352360961</v>
-      </c>
-      <c r="F31" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>65.73±0</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>57.87±0</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>69.46±0</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>44.74±0</v>
       </c>
     </row>
   </sheetData>
@@ -5969,15 +5279,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5993,11 +5303,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -6010,14 +5317,11 @@
       <c r="D2">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E2">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -6030,14 +5334,11 @@
       <c r="D3">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E3">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -6050,14 +5351,11 @@
       <c r="D4">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E4">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -6070,14 +5368,11 @@
       <c r="D5">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E5">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -6090,14 +5385,11 @@
       <c r="D6">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E6">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -6110,14 +5402,11 @@
       <c r="D7">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E7">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -6130,14 +5419,11 @@
       <c r="D8">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E8">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -6150,14 +5436,11 @@
       <c r="D9">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E9">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -6170,14 +5453,11 @@
       <c r="D10">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E10">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -6190,14 +5470,11 @@
       <c r="D11">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E11">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -6210,14 +5487,11 @@
       <c r="D12">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E12">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -6230,14 +5504,11 @@
       <c r="D13">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E13">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -6250,14 +5521,11 @@
       <c r="D14">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E14">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -6270,14 +5538,11 @@
       <c r="D15">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E15">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -6290,14 +5555,11 @@
       <c r="D16">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E16">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -6310,14 +5572,11 @@
       <c r="D17">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E17">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -6330,14 +5589,11 @@
       <c r="D18">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E18">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -6350,14 +5606,11 @@
       <c r="D19">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E19">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -6370,14 +5623,11 @@
       <c r="D20">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E20">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -6390,14 +5640,11 @@
       <c r="D21">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E21">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -6410,14 +5657,11 @@
       <c r="D22">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E22">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -6430,14 +5674,11 @@
       <c r="D23">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E23">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -6450,14 +5691,11 @@
       <c r="D24">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E24">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -6470,14 +5708,11 @@
       <c r="D25">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E25">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -6490,14 +5725,11 @@
       <c r="D26">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E26">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -6510,14 +5742,11 @@
       <c r="D27">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E27">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -6530,14 +5759,11 @@
       <c r="D28">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E28">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -6550,14 +5776,11 @@
       <c r="D29">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E29">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -6570,14 +5793,11 @@
       <c r="D30">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E30">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F30" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -6590,32 +5810,25 @@
       <c r="D31">
         <v>0.69317492416582405</v>
       </c>
-      <c r="E31">
-        <v>0.39509261970698389</v>
-      </c>
-      <c r="F31" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>70.62±0</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>75.32±0</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>69.32±0</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>39.51±0</v>
       </c>
     </row>
   </sheetData>
@@ -6626,15 +5839,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6650,11 +5863,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -6667,14 +5877,11 @@
       <c r="D2">
         <v>0.49907554528383652</v>
       </c>
-      <c r="E2">
-        <v>-3.4322019638201558E-3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -6687,14 +5894,11 @@
       <c r="D3">
         <v>0.49368048533872599</v>
       </c>
-      <c r="E3">
-        <v>-1.7786381292862662E-2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -6707,14 +5911,11 @@
       <c r="D4">
         <v>0.49907554528383652</v>
       </c>
-      <c r="E4">
-        <v>-3.4322019638201558E-3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -6727,14 +5928,11 @@
       <c r="D5">
         <v>0.51607684529828113</v>
       </c>
-      <c r="E5">
-        <v>5.9033552582465669E-2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -6747,14 +5945,11 @@
       <c r="D6">
         <v>0.50994511050122771</v>
       </c>
-      <c r="E6">
-        <v>3.9204229655957053E-2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -6767,14 +5962,11 @@
       <c r="D7">
         <v>0.50225335837064855</v>
       </c>
-      <c r="E7">
-        <v>6.7687579490996437E-3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -6787,14 +5979,11 @@
       <c r="D8">
         <v>0.57595695507727862</v>
       </c>
-      <c r="E8">
-        <v>0.1689534462034375</v>
-      </c>
-      <c r="F8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -6807,14 +5996,11 @@
       <c r="D9">
         <v>0.51913187924310278</v>
       </c>
-      <c r="E9">
-        <v>5.9889227844557677E-2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -6827,14 +6013,11 @@
       <c r="D10">
         <v>0.4680052000577784</v>
       </c>
-      <c r="E10">
-        <v>-0.1085672956825037</v>
-      </c>
-      <c r="F10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -6847,14 +6030,11 @@
       <c r="D11">
         <v>0.46952188357648422</v>
       </c>
-      <c r="E11">
-        <v>-8.7215028140523773E-2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -6867,14 +6047,11 @@
       <c r="D12">
         <v>0.51070345226058067</v>
       </c>
-      <c r="E12">
-        <v>3.6991918346612362E-2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -6887,14 +6064,11 @@
       <c r="D13">
         <v>0.47899754441716019</v>
       </c>
-      <c r="E13">
-        <v>-7.0028981150459607E-2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -6907,14 +6081,11 @@
       <c r="D14">
         <v>0.5131229235880399</v>
       </c>
-      <c r="E14">
-        <v>4.0784384736447243E-2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -6927,14 +6098,11 @@
       <c r="D15">
         <v>0.48359092878809767</v>
       </c>
-      <c r="E15">
-        <v>-4.9947382507679543E-2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -6947,14 +6115,11 @@
       <c r="D16">
         <v>0.5003466705185613</v>
       </c>
-      <c r="E16">
-        <v>1.1659726539041231E-3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -6967,14 +6132,11 @@
       <c r="D17">
         <v>0.51375848620540232</v>
       </c>
-      <c r="E17">
-        <v>4.1328474016137248E-2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -6987,14 +6149,11 @@
       <c r="D18">
         <v>0.47337859309547881</v>
       </c>
-      <c r="E18">
-        <v>-9.5701191799383481E-2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -7007,14 +6166,11 @@
       <c r="D19">
         <v>0.51580962010689013</v>
       </c>
-      <c r="E19">
-        <v>5.0228941784988018E-2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -7027,14 +6183,11 @@
       <c r="D20">
         <v>0.55221002455582846</v>
       </c>
-      <c r="E20">
-        <v>0.1308550724023268</v>
-      </c>
-      <c r="F20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -7047,14 +6200,11 @@
       <c r="D21">
         <v>0.50379170879676438</v>
       </c>
-      <c r="E21">
-        <v>1.186932601675832E-2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -7067,14 +6217,11 @@
       <c r="D22">
         <v>0.52604362270691907</v>
       </c>
-      <c r="E22">
-        <v>9.0008675815036548E-2</v>
-      </c>
-      <c r="F22" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -7087,14 +6234,11 @@
       <c r="D23">
         <v>0.49409215657951749</v>
       </c>
-      <c r="E23">
-        <v>-2.2713856615939321E-2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -7107,14 +6251,11 @@
       <c r="D24">
         <v>0.52286580962010687</v>
       </c>
-      <c r="E24">
-        <v>0.1113186601800855</v>
-      </c>
-      <c r="F24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -7127,14 +6268,11 @@
       <c r="D25">
         <v>0.49690163224035833</v>
       </c>
-      <c r="E25">
-        <v>-1.137708627937007E-2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -7147,14 +6285,11 @@
       <c r="D26">
         <v>0.50176224180268669</v>
       </c>
-      <c r="E26">
-        <v>6.7752824135564726E-3</v>
-      </c>
-      <c r="F26" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -7167,14 +6302,11 @@
       <c r="D27">
         <v>0.51300014444604947</v>
       </c>
-      <c r="E27">
-        <v>4.2625478753916833E-2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -7187,14 +6319,11 @@
       <c r="D28">
         <v>0.47606528961432909</v>
       </c>
-      <c r="E28">
-        <v>-8.8861853969531238E-2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -7207,14 +6336,11 @@
       <c r="D29">
         <v>0.48910876787519858</v>
       </c>
-      <c r="E29">
-        <v>-4.3499004231677789E-2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -7227,14 +6353,11 @@
       <c r="D30">
         <v>0.50941066011844582</v>
       </c>
-      <c r="E30">
-        <v>2.7909515544979609E-2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -7247,32 +6370,25 @@
       <c r="D31">
         <v>0.53908710096778856</v>
       </c>
-      <c r="E31">
-        <v>0.14352631921666861</v>
-      </c>
-      <c r="F31" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>45.26±3</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>18.05±7</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>50.56±2</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>1.56±7</v>
       </c>
     </row>
   </sheetData>
